--- a/plannerAgentBackend/uploaded_exams/planner_agent_data_nushan.xlsx
+++ b/plannerAgentBackend/uploaded_exams/planner_agent_data_nushan.xlsx
@@ -18,12 +18,14 @@
     <sheet name="Semester 4" sheetId="4" r:id="rId4"/>
     <sheet name="Semester 5" sheetId="5" r:id="rId5"/>
     <sheet name="module codes" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="12" r:id="rId8"/>
-    <sheet name="module codes2" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
-    <sheet name="halls" sheetId="7" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="13" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId9"/>
+    <sheet name="module codes2" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId12"/>
+    <sheet name="halls" sheetId="7" r:id="rId13"/>
+    <sheet name="halls-exam" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7801" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7973" uniqueCount="1425">
   <si>
     <t>Hall</t>
   </si>
@@ -4004,6 +4006,312 @@
   </si>
   <si>
     <t>IS8201: Day=Sun, Hall=AUD, Slot=4</t>
+  </si>
+  <si>
+    <t>CE1202: Day=Fri2, Slot=0, Hall=AUD, Students=550, Dept=CE</t>
+  </si>
+  <si>
+    <t>CE1101: Day=Thu2, Slot=0, Hall=AUD, Students=550, Dept=CE</t>
+  </si>
+  <si>
+    <t>EE1301: Day=Sat2, Slot=1, Hall=AUD, Students=550, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE1101: Day=Sat2, Slot=0, Hall=AUD, Students=550, Dept=EE</t>
+  </si>
+  <si>
+    <t>ME1201: Day=Thu, Slot=0, Hall=AUD, Students=550, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME1202: Day=Sun2, Slot=0, Hall=AUD, Students=550, Dept=ME</t>
+  </si>
+  <si>
+    <t>IS1402: Day=Fri2, Slot=1, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>IS1301: Day=Wed, Slot=0, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>IS1003: Day=Tue, Slot=1, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE3201: Day=Tue2, Slot=1, Hall=Civil-COBEU, Students=100, Dept=CE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE3202: Day=Thu, Slot=0, Hall=Civil-COBEU, Students=100, Dept=CE   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE3303: Day=Tue2, Slot=0, Hall=Civil-COBEU, Students=100, Dept=CE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE3304: Day=Mon2, Slot=1, Hall=Civil-COBEU, Students=100, Dept=CE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE3205: Day=Sat2, Slot=0, Hall=Civil-COBEU, Students=100, Dept=CE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE3301: Day=Mon, Slot=0, Hall=Civil-CSR, Students=75, Dept=EE      </t>
+  </si>
+  <si>
+    <t>EE3202: Day=Mon2, Slot=0, Hall=LR1, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE3203: Day=Wed2, Slot=1, Hall=LT1, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE3304: Day=Thu, Slot=1, Hall=DO2, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE3205: Day=Mon2, Slot=1, Hall=Electrical-ESR, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE3306: Day=Fri, Slot=1, Hall=I.S. Seminar Room, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EC3301: Day=Wed, Slot=1, Hall=New Computer Center, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC3202: Day=Fri2, Slot=1, Hall=LT1, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC3203: Day=Fri, Slot=0, Hall=LT1, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC3404: Day=Wed2, Slot=1, Hall=New Computer Center, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC3305: Day=Sat2, Slot=1, Hall=New Computer Center, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>ME3301: Day=Wed2, Slot=0, Hall=LT2, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME3202: Day=Sat2, Slot=0, Hall=Electrical-ECC, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME3303: Day=Sat, Slot=0, Hall=Electrical-ESR, Students=75, Dept=ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME3204: Day=Wed, Slot=0, Hall=Electrical-ECC, Students=75, Dept=ME </t>
+  </si>
+  <si>
+    <t>ME3305: Day=Thu, Slot=1, Hall=NLH3, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME3206: Day=Tue, Slot=0, Hall=LR1, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME3210: Day=Mon, Slot=1, Hall=Electrical-ECC, Students=75, Dept=ME </t>
+  </si>
+  <si>
+    <t>IS3321: Day=Wed2, Slot=0, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>IS3301: Day=Wed, Slot=1, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>IS3322: Day=Sat, Slot=0, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE5301: Day=Wed, Slot=1, Hall=Civil-COBEU, Students=100, Dept=CE   </t>
+  </si>
+  <si>
+    <t>CE5202: Day=Fri, Slot=1, Hall=LR1, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE5303: Day=Tue, Slot=1, Hall=Civil-COBEU, Students=100, Dept=CE   </t>
+  </si>
+  <si>
+    <t>CE5204: Day=Mon2, Slot=0, Hall=DO1, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t>CE5205: Day=Sun2, Slot=1, Hall=LR2, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t>CE5306: Day=Sun, Slot=0, Hall=LR2, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t>CE5251: Day=Thu2, Slot=1, Hall=LT1, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t>CE5252: Day=Sun2, Slot=0, Hall=I.S. Seminar Room, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t>EE5201: Day=Thu2, Slot=1, Hall=Electrical-ECC, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5302: Day=Sat2, Slot=0, Hall=Electrical-ESR, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5303: Day=Tue2, Slot=1, Hall=New Computer Center, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5304: Day=Mon, Slot=1, Hall=DO2, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5305: Day=Sun2, Slot=1, Hall=DO2, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE5206: Day=Fri, Slot=0, Hall=Electrical-ECC, Students=75, Dept=EE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE5207: Day=Tue2, Slot=0, Hall=Civil-CSR, Students=75, Dept=EE     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE5208: Day=Sun, Slot=0, Hall=Civil-COBEU, Students=75, Dept=EE    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE5209: Day=Wed, Slot=0, Hall=Electrical-ESR, Students=75, Dept=EE </t>
+  </si>
+  <si>
+    <t>EE5453: Day=Fri2, Slot=0, Hall=LT2, Students=200, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5250: Day=Fri, Slot=0, Hall=LT2, Students=200, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5351: Day=Tue, Slot=0, Hall=LT1, Students=200, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5253: Day=Thu, Slot=0, Hall=New Computer Center, Students=200, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5454: Day=Thu2, Slot=0, Hall=New Computer Center, Students=200, Dept=EE</t>
+  </si>
+  <si>
+    <t>IS5311: Day=Thu, Slot=1, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>EE5260: Day=Sat, Slot=0, Hall=LT2, Students=200, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5261: Day=Fri2, Slot=1, Hall=New Computer Center, Students=200, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE5262: Day=Wed2, Slot=0, Hall=LT1, Students=200, Dept=EE</t>
+  </si>
+  <si>
+    <t>ME5301: Day=Sun, Slot=0, Hall=LT2, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME5302: Day=Fri2, Slot=0, Hall=LR1, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME5303: Day=Fri, Slot=1, Hall=LT1, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME5204: Day=Sat, Slot=1, Hall=Civil-CSR, Students=75, Dept=ME      </t>
+  </si>
+  <si>
+    <t>ME5305: Day=Sun, Slot=1, Hall=New Computer Center, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME5210: Day=Wed, Slot=1, Hall=I.S. Seminar Room, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME5212: Day=Thu2, Slot=0, Hall=I.S. Seminar Room, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME5213: Day=Tue2, Slot=1, Hall=Electrical-ECC, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>IS5101: Day=Sat, Slot=1, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>IS5302: Day=Mon2, Slot=0, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>IS5303: Day=Sun, Slot=0, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>IS5306: Day=Sun, Slot=1, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>CE8301: Day=Mon, Slot=0, Hall=I.S. Seminar Room, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE7252: Day=Sat, Slot=1, Hall=Civil-COBEU, Students=100, Dept=CE   </t>
+  </si>
+  <si>
+    <t>CE7401: Day=Wed2, Slot=1, Hall=Old Computer Centre, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t>CE7606: Day=Tue, Slot=0, Hall=NLH1, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t>CE7205: Day=Sat, Slot=0, Hall=Old Computer Centre, Students=100, Dept=CE</t>
+  </si>
+  <si>
+    <t>EE7208: Day=Mon2, Slot=0, Hall=LR2, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE7802: Day=Wed, Slot=1, Hall=Civil-CSR, Students=75, Dept=EE      </t>
+  </si>
+  <si>
+    <t>EE8203: Day=Thu2, Slot=1, Hall=LT2, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE8204: Day=Mon2, Slot=1, Hall=Electrical-ECC, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE8206: Day=Tue, Slot=1, Hall=Mechanical-MLR, Students=75, Dept=EE </t>
+  </si>
+  <si>
+    <t>EE8208: Day=Sun2, Slot=0, Hall=Electrical-ESR, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE8210: Day=Sun, Slot=1, Hall=Electrical-ESR, Students=75, Dept=EE </t>
+  </si>
+  <si>
+    <t>EE8211: Day=Mon, Slot=1, Hall=AUD, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EE8217: Day=Sat, Slot=1, Hall=LR1, Students=75, Dept=EE</t>
+  </si>
+  <si>
+    <t>EC7802: Day=Wed2, Slot=0, Hall=New Computer Center, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC8204: Day=Mon2, Slot=0, Hall=LT2, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC8205: Day=Fri2, Slot=0, Hall=New Computer Center, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC8206: Day=Mon, Slot=1, Hall=LT1, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC8207: Day=Tue, Slot=0, Hall=LT2, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>EC8208: Day=Thu, Slot=1, Hall=New Computer Center, Students=200, Dept=EC</t>
+  </si>
+  <si>
+    <t>ME8301: Day=Fri, Slot=0, Hall=LR2, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME8202: Day=Thu2, Slot=1, Hall=DO1, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME8211: Day=Tue, Slot=1, Hall=Electrical-ECC, Students=75, Dept=ME </t>
+  </si>
+  <si>
+    <t>ME8212: Day=Sat2, Slot=1, Hall=Mechanical-MLR, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME7401: Day=Fri2, Slot=1, Hall=I.S. Seminar Room, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>ME7604: Day=Sun2, Slot=1, Hall=AUD, Students=75, Dept=ME</t>
+  </si>
+  <si>
+    <t>IS8201: Day=Mon, Slot=0, Hall=AUD, Students=550, Dept=IS</t>
+  </si>
+  <si>
+    <t>GYM</t>
+  </si>
+  <si>
+    <t>Gym</t>
   </si>
 </sst>
 </file>
@@ -7871,6 +8179,289 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(MID(A2,3,1)=" ",LEFT(A2,2)&amp;MID(A2,4,LEN(A2)-3),A2)</f>
+        <v>CE1202</v>
+      </c>
+      <c r="D2" t="str">
+        <f>MID(C2,4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" t="b">
+        <f>IF(F2="IS",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,2)</f>
+        <v>CE</v>
+      </c>
+      <c r="G2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C10" si="0">IF(MID(A3,3,1)=" ",LEFT(A3,2)&amp;MID(A3,4,LEN(A3)-3),A3)</f>
+        <v>CE1101</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D9" si="1">MID(C3,4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E10" si="2">IF(F3="IS",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F10" si="3">LEFT(C3,2)</f>
+        <v>CE</v>
+      </c>
+      <c r="G3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>EE1301</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+      <c r="G4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>EE1101</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+      <c r="G5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>ME1201</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+      <c r="G6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>ME1202</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+      <c r="G7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>IS1402</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+      <c r="G8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>IS1301</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+      <c r="G9">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>IS1003</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+      <c r="G10">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
@@ -10788,7 +11379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B248"/>
   <sheetViews>
@@ -12791,12 +13382,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13445,6 +14036,469 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>605</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" t="s">
+        <v>606</v>
+      </c>
+      <c r="H6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>607</v>
+      </c>
+      <c r="H7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" t="s">
+        <v>608</v>
+      </c>
+      <c r="H8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>609</v>
+      </c>
+      <c r="H9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>612</v>
+      </c>
+      <c r="F11" t="s">
+        <v>613</v>
+      </c>
+      <c r="G11" t="s">
+        <v>614</v>
+      </c>
+      <c r="H11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" t="s">
+        <v>615</v>
+      </c>
+      <c r="H12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>631</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>616</v>
+      </c>
+      <c r="F13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" t="s">
+        <v>617</v>
+      </c>
+      <c r="H13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F14" t="s">
+        <v>618</v>
+      </c>
+      <c r="G14" t="s">
+        <v>618</v>
+      </c>
+      <c r="H14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>625</v>
+      </c>
+      <c r="F15" t="s">
+        <v>625</v>
+      </c>
+      <c r="G15" t="s">
+        <v>626</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>627</v>
+      </c>
+      <c r="F16" t="s">
+        <v>627</v>
+      </c>
+      <c r="G16" t="s">
+        <v>628</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B17">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>629</v>
+      </c>
+      <c r="F17" t="s">
+        <v>629</v>
+      </c>
+      <c r="G17" t="s">
+        <v>630</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -39847,7 +40901,7 @@
   <dimension ref="A1:L362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D36"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39902,8 +40956,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="b">
-        <f>IF(F2="IS",TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(C2,2)</f>
@@ -39929,11 +40982,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="b">
-        <f t="shared" ref="E3:E66" si="2">IF(F3="IS",TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="3">LEFT(C3,2)</f>
+        <f t="shared" ref="F3:F66" si="2">LEFT(C3,2)</f>
         <v>CE</v>
       </c>
       <c r="G3">
@@ -39956,11 +41008,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G4">
@@ -39983,11 +41034,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G5">
@@ -40010,11 +41060,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G6">
@@ -40037,11 +41086,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G7">
@@ -40064,11 +41112,11 @@
         <v>4</v>
       </c>
       <c r="E8" t="b">
+        <f t="shared" ref="E2:E66" si="3">IF(F8="IS",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="3"/>
         <v>IS</v>
       </c>
       <c r="G8">
@@ -40091,11 +41139,11 @@
         <v>3</v>
       </c>
       <c r="E9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="3"/>
         <v>IS</v>
       </c>
       <c r="G9">
@@ -40117,11 +41165,11 @@
         <v>2</v>
       </c>
       <c r="E10" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="3"/>
         <v>IS</v>
       </c>
       <c r="G10">
@@ -40144,11 +41192,11 @@
         <v>2</v>
       </c>
       <c r="E11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G11">
@@ -40171,11 +41219,11 @@
         <v>2</v>
       </c>
       <c r="E12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G12">
@@ -40198,11 +41246,11 @@
         <v>3</v>
       </c>
       <c r="E13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G13">
@@ -40225,11 +41273,11 @@
         <v>3</v>
       </c>
       <c r="E14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G14">
@@ -40252,11 +41300,11 @@
         <v>2</v>
       </c>
       <c r="E15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G15">
@@ -40279,11 +41327,11 @@
         <v>3</v>
       </c>
       <c r="E16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G16">
@@ -40306,11 +41354,11 @@
         <v>2</v>
       </c>
       <c r="E17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G17">
@@ -40333,11 +41381,11 @@
         <v>2</v>
       </c>
       <c r="E18" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G18">
@@ -40360,11 +41408,11 @@
         <v>3</v>
       </c>
       <c r="E19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G19">
@@ -40387,11 +41435,11 @@
         <v>2</v>
       </c>
       <c r="E20" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G20">
@@ -40414,11 +41462,11 @@
         <v>3</v>
       </c>
       <c r="E21" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G21">
@@ -40441,11 +41489,11 @@
         <v>3</v>
       </c>
       <c r="E22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="G22">
@@ -40468,11 +41516,11 @@
         <v>2</v>
       </c>
       <c r="E23" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="G23">
@@ -40495,11 +41543,11 @@
         <v>2</v>
       </c>
       <c r="E24" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="G24">
@@ -40522,11 +41570,11 @@
         <v>4</v>
       </c>
       <c r="E25" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="G25">
@@ -40549,11 +41597,11 @@
         <v>3</v>
       </c>
       <c r="E26" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="3"/>
         <v>EC</v>
       </c>
       <c r="G26">
@@ -40576,11 +41624,11 @@
         <v>3</v>
       </c>
       <c r="E27" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G27">
@@ -40603,11 +41651,11 @@
         <v>2</v>
       </c>
       <c r="E28" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G28">
@@ -40630,11 +41678,11 @@
         <v>3</v>
       </c>
       <c r="E29" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G29">
@@ -40657,11 +41705,11 @@
         <v>2</v>
       </c>
       <c r="E30" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G30">
@@ -40684,7 +41732,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F31" t="str">
@@ -40711,11 +41759,11 @@
         <v>2</v>
       </c>
       <c r="E32" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G32">
@@ -40738,11 +41786,11 @@
         <v>2</v>
       </c>
       <c r="E33" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G33">
@@ -40765,11 +41813,11 @@
         <v>3</v>
       </c>
       <c r="E34" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="3"/>
         <v>IS</v>
       </c>
       <c r="G34">
@@ -40792,11 +41840,11 @@
         <v>3</v>
       </c>
       <c r="E35" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="3"/>
         <v>IS</v>
       </c>
       <c r="G35">
@@ -40819,11 +41867,11 @@
         <v>3</v>
       </c>
       <c r="E36" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="3"/>
         <v>IS</v>
       </c>
       <c r="G36">
@@ -40846,11 +41894,11 @@
         <v>3</v>
       </c>
       <c r="E37" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G37">
@@ -40873,11 +41921,11 @@
         <v>2</v>
       </c>
       <c r="E38" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G38">
@@ -40900,11 +41948,11 @@
         <v>3</v>
       </c>
       <c r="E39" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G39">
@@ -40927,11 +41975,11 @@
         <v>2</v>
       </c>
       <c r="E40" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G40">
@@ -40954,11 +42002,11 @@
         <v>2</v>
       </c>
       <c r="E41" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G41">
@@ -40981,11 +42029,11 @@
         <v>3</v>
       </c>
       <c r="E42" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G42">
@@ -41008,11 +42056,11 @@
         <v>2</v>
       </c>
       <c r="E43" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G43">
@@ -41035,11 +42083,11 @@
         <v>2</v>
       </c>
       <c r="E44" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="G44">
@@ -41066,7 +42114,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>EE</v>
       </c>
       <c r="G45">
@@ -41089,11 +42137,11 @@
         <v>3</v>
       </c>
       <c r="E46" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G46">
@@ -41116,11 +42164,11 @@
         <v>3</v>
       </c>
       <c r="E47" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G47">
@@ -41143,11 +42191,11 @@
         <v>3</v>
       </c>
       <c r="E48" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G48">
@@ -41170,11 +42218,11 @@
         <v>3</v>
       </c>
       <c r="E49" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G49">
@@ -41197,11 +42245,11 @@
         <v>2</v>
       </c>
       <c r="E50" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G50">
@@ -41224,11 +42272,11 @@
         <v>2</v>
       </c>
       <c r="E51" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G51">
@@ -41251,11 +42299,11 @@
         <v>2</v>
       </c>
       <c r="E52" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G52">
@@ -41278,11 +42326,11 @@
         <v>2</v>
       </c>
       <c r="E53" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G53">
@@ -41305,11 +42353,11 @@
         <v>4</v>
       </c>
       <c r="E54" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G54">
@@ -41332,7 +42380,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F55" t="str">
@@ -41359,11 +42407,11 @@
         <v>3</v>
       </c>
       <c r="E56" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F56" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G56">
@@ -41386,11 +42434,11 @@
         <v>2</v>
       </c>
       <c r="E57" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F57" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G57">
@@ -41413,11 +42461,11 @@
         <v>4</v>
       </c>
       <c r="E58" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F58" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G58">
@@ -41440,11 +42488,11 @@
         <v>3</v>
       </c>
       <c r="E59" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F59" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="3"/>
         <v>IS</v>
       </c>
       <c r="G59">
@@ -41467,11 +42515,11 @@
         <v>2</v>
       </c>
       <c r="E60" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F60" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G60">
@@ -41494,11 +42542,11 @@
         <v>2</v>
       </c>
       <c r="E61" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F61" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G61">
@@ -41521,11 +42569,11 @@
         <v>2</v>
       </c>
       <c r="E62" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="3"/>
         <v>EE</v>
       </c>
       <c r="G62">
@@ -41548,11 +42596,11 @@
         <v>3</v>
       </c>
       <c r="E63" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G63">
@@ -41575,11 +42623,11 @@
         <v>3</v>
       </c>
       <c r="E64" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G64">
@@ -41602,11 +42650,11 @@
         <v>3</v>
       </c>
       <c r="E65" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F65" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G65">
@@ -41629,11 +42677,11 @@
         <v>2</v>
       </c>
       <c r="E66" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="3"/>
         <v>ME</v>
       </c>
       <c r="G66">
@@ -41652,7 +42700,7 @@
         <v>ME5305</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D80" si="5">VALUE(MID(C67,4,1))</f>
+        <f t="shared" ref="D67:D77" si="5">VALUE(MID(C67,4,1))</f>
         <v>3</v>
       </c>
       <c r="E67" t="b">
@@ -42614,6 +43662,522 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="86.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
@@ -43871,7 +45435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A102"/>
   <sheetViews>
@@ -44397,287 +45961,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="7" max="7" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <f>IF(MID(A2,3,1)=" ",LEFT(A2,2)&amp;MID(A2,4,LEN(A2)-3),A2)</f>
-        <v>CE1202</v>
-      </c>
-      <c r="D2" t="str">
-        <f>MID(C2,4,1)</f>
-        <v>2</v>
-      </c>
-      <c r="E2" t="b">
-        <f>IF(F2="IS",TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="str">
-        <f>LEFT(C2,2)</f>
-        <v>CE</v>
-      </c>
-      <c r="G2">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C10" si="0">IF(MID(A3,3,1)=" ",LEFT(A3,2)&amp;MID(A3,4,LEN(A3)-3),A3)</f>
-        <v>CE1101</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D9" si="1">MID(C3,4,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <f t="shared" ref="E3:E10" si="2">IF(F3="IS",TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F10" si="3">LEFT(C3,2)</f>
-        <v>CE</v>
-      </c>
-      <c r="G3">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>EE1301</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="3"/>
-        <v>EE</v>
-      </c>
-      <c r="G4">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>EE1101</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="3"/>
-        <v>EE</v>
-      </c>
-      <c r="G5">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>ME1201</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E6" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="3"/>
-        <v>ME</v>
-      </c>
-      <c r="G6">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>ME1202</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="3"/>
-        <v>ME</v>
-      </c>
-      <c r="G7">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>IS1402</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E8" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="3"/>
-        <v>IS</v>
-      </c>
-      <c r="G8">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>IS1301</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="3"/>
-        <v>IS</v>
-      </c>
-      <c r="G9">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>IS1003</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="3"/>
-        <v>IS</v>
-      </c>
-      <c r="G10">
-        <v>550</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/plannerAgentBackend/uploaded_exams/planner_agent_data_nushan.xlsx
+++ b/plannerAgentBackend/uploaded_exams/planner_agent_data_nushan.xlsx
@@ -27,6 +27,10 @@
     <sheet name="halls" sheetId="7" r:id="rId13"/>
     <sheet name="halls-exam" sheetId="15" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'module codes'!$I$4:$I$101</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">'module codes'!$K$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7973" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="1426">
   <si>
     <t>Hall</t>
   </si>
@@ -4312,13 +4316,16 @@
   </si>
   <si>
     <t>Gym</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4339,6 +4346,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="18">
@@ -4466,7 +4479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4537,12 +4550,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -13387,7 +13492,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H24"/>
+      <selection activeCell="A21" sqref="A21:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13931,19 +14036,22 @@
         <v>631</v>
       </c>
       <c r="B21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>625</v>
       </c>
       <c r="F21" t="s">
         <v>625</v>
+      </c>
+      <c r="G21" t="s">
+        <v>626</v>
       </c>
       <c r="H21">
         <v>50</v>
@@ -13954,7 +14062,7 @@
         <v>631</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -13963,16 +14071,16 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F22" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G22" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13980,7 +14088,7 @@
         <v>631</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -13989,41 +14097,15 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F23" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G23" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H23">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>631</v>
-      </c>
-      <c r="B24">
-        <v>46</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>629</v>
-      </c>
-      <c r="F24" t="s">
-        <v>629</v>
-      </c>
-      <c r="G24" t="s">
-        <v>630</v>
-      </c>
-      <c r="H24">
         <v>50</v>
       </c>
     </row>
@@ -14043,8 +14125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14129,8 +14211,8 @@
       <c r="G3" t="s">
         <v>603</v>
       </c>
-      <c r="H3">
-        <v>300</v>
+      <c r="H3" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -40898,10 +40980,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L362"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E6" sqref="E6:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40914,10 +40996,11 @@
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="41.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>589</v>
       </c>
@@ -40940,7 +41023,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10" ht="18.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -40958,15 +41041,18 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
-        <f>LEFT(C2,2)</f>
-        <v>CE</v>
+      <c r="F2" t="s">
+        <v>86</v>
       </c>
       <c r="G2">
         <v>550</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -40984,15 +41070,18 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="2">LEFT(C3,2)</f>
-        <v>CE</v>
+      <c r="F3" t="s">
+        <v>86</v>
       </c>
       <c r="G3">
         <v>550</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -41011,14 +41100,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F3:F66" si="2">LEFT(C4,2)</f>
         <v>EE</v>
       </c>
       <c r="G4">
         <v>550</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" t="str">
+        <f>LEFT(F2,2)</f>
+        <v>CE</v>
+      </c>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -41043,8 +41137,13 @@
       <c r="G5">
         <v>550</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" t="str">
+        <f>LEFT(F3,2)</f>
+        <v>CE</v>
+      </c>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -41069,8 +41168,13 @@
       <c r="G6">
         <v>550</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" t="str">
+        <f t="shared" ref="I3:I66" si="3">LEFT(F6,2)</f>
+        <v>ME</v>
+      </c>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -41095,8 +41199,13 @@
       <c r="G7">
         <v>550</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -41112,7 +41221,6 @@
         <v>4</v>
       </c>
       <c r="E8" t="b">
-        <f t="shared" ref="E2:E66" si="3">IF(F8="IS",TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F8" t="str">
@@ -41122,8 +41230,13 @@
       <c r="G8">
         <v>550</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -41139,7 +41252,6 @@
         <v>3</v>
       </c>
       <c r="E9" t="b">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F9" t="str">
@@ -41149,8 +41261,13 @@
       <c r="G9">
         <v>550</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -41165,7 +41282,6 @@
         <v>2</v>
       </c>
       <c r="E10" t="b">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F10" t="str">
@@ -41175,8 +41291,13 @@
       <c r="G10">
         <v>550</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>545</v>
       </c>
@@ -41192,7 +41313,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E8:E66" si="4">IF(F11="IS",TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F11" t="str">
@@ -41202,8 +41323,12 @@
       <c r="G11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>546</v>
       </c>
@@ -41219,7 +41344,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12" t="str">
@@ -41229,8 +41354,12 @@
       <c r="G12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -41246,7 +41375,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13" t="str">
@@ -41256,8 +41385,12 @@
       <c r="G13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>547</v>
       </c>
@@ -41273,7 +41406,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F14" t="str">
@@ -41283,8 +41416,12 @@
       <c r="G14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>548</v>
       </c>
@@ -41300,7 +41437,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F15" t="str">
@@ -41310,8 +41447,12 @@
       <c r="G15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -41327,7 +41468,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F16" t="str">
@@ -41337,8 +41478,12 @@
       <c r="G16">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>549</v>
       </c>
@@ -41354,7 +41499,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" t="str">
@@ -41364,8 +41509,12 @@
       <c r="G17">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>550</v>
       </c>
@@ -41381,7 +41530,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F18" t="str">
@@ -41391,8 +41540,12 @@
       <c r="G18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -41408,7 +41561,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F19" t="str">
@@ -41418,8 +41571,12 @@
       <c r="G19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -41435,7 +41592,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F20" t="str">
@@ -41445,8 +41602,12 @@
       <c r="G20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -41462,7 +41623,7 @@
         <v>3</v>
       </c>
       <c r="E21" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F21" t="str">
@@ -41472,8 +41633,12 @@
       <c r="G21">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -41489,7 +41654,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F22" t="str">
@@ -41499,8 +41664,12 @@
       <c r="G22">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -41516,7 +41685,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23" t="str">
@@ -41526,8 +41695,12 @@
       <c r="G23">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -41543,7 +41716,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F24" t="str">
@@ -41553,8 +41726,12 @@
       <c r="G24">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -41570,7 +41747,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F25" t="str">
@@ -41580,8 +41757,12 @@
       <c r="G25">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -41597,7 +41778,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F26" t="str">
@@ -41607,8 +41788,12 @@
       <c r="G26">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>551</v>
       </c>
@@ -41624,7 +41809,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F27" t="str">
@@ -41634,8 +41819,12 @@
       <c r="G27">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>552</v>
       </c>
@@ -41651,7 +41840,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F28" t="str">
@@ -41661,8 +41850,12 @@
       <c r="G28">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>553</v>
       </c>
@@ -41678,7 +41871,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F29" t="str">
@@ -41688,8 +41881,12 @@
       <c r="G29">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>554</v>
       </c>
@@ -41705,7 +41902,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F30" t="str">
@@ -41715,8 +41912,12 @@
       <c r="G30">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>555</v>
       </c>
@@ -41732,7 +41933,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31" t="str">
@@ -41742,8 +41943,12 @@
       <c r="G31">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" t="str">
+        <f>LEFT(F31,2)</f>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>556</v>
       </c>
@@ -41759,7 +41964,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F32" t="str">
@@ -41769,8 +41974,12 @@
       <c r="G32">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>557</v>
       </c>
@@ -41786,7 +41995,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33" t="str">
@@ -41796,8 +42005,12 @@
       <c r="G33">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>558</v>
       </c>
@@ -41813,7 +42026,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F34" t="str">
@@ -41823,8 +42036,12 @@
       <c r="G34">
         <v>550</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>559</v>
       </c>
@@ -41840,7 +42057,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F35" t="str">
@@ -41850,8 +42067,12 @@
       <c r="G35">
         <v>550</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>560</v>
       </c>
@@ -41867,7 +42088,7 @@
         <v>3</v>
       </c>
       <c r="E36" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F36" t="str">
@@ -41877,8 +42098,12 @@
       <c r="G36">
         <v>550</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>306</v>
       </c>
@@ -41894,7 +42119,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F37" t="str">
@@ -41904,8 +42129,12 @@
       <c r="G37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>311</v>
       </c>
@@ -41921,7 +42150,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F38" t="str">
@@ -41931,8 +42160,12 @@
       <c r="G38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>295</v>
       </c>
@@ -41948,7 +42181,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F39" t="str">
@@ -41958,8 +42191,12 @@
       <c r="G39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -41975,7 +42212,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F40" t="str">
@@ -41985,8 +42222,12 @@
       <c r="G40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>284</v>
       </c>
@@ -42002,7 +42243,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F41" t="str">
@@ -42012,8 +42253,12 @@
       <c r="G41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>309</v>
       </c>
@@ -42029,7 +42274,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F42" t="str">
@@ -42039,8 +42284,12 @@
       <c r="G42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>315</v>
       </c>
@@ -42056,7 +42305,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F43" t="str">
@@ -42066,8 +42315,12 @@
       <c r="G43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>302</v>
       </c>
@@ -42083,7 +42336,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F44" t="str">
@@ -42093,8 +42346,12 @@
       <c r="G44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>303</v>
       </c>
@@ -42120,8 +42377,12 @@
       <c r="G45">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>296</v>
       </c>
@@ -42137,7 +42398,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F46" t="str">
@@ -42147,8 +42408,12 @@
       <c r="G46">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -42164,7 +42429,7 @@
         <v>3</v>
       </c>
       <c r="E47" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F47" t="str">
@@ -42174,8 +42439,12 @@
       <c r="G47">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>301</v>
       </c>
@@ -42191,7 +42460,7 @@
         <v>3</v>
       </c>
       <c r="E48" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48" t="str">
@@ -42201,8 +42470,12 @@
       <c r="G48">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>293</v>
       </c>
@@ -42218,7 +42491,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49" t="str">
@@ -42228,8 +42501,12 @@
       <c r="G49">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -42245,7 +42522,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F50" t="str">
@@ -42255,8 +42532,12 @@
       <c r="G50">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>291</v>
       </c>
@@ -42272,7 +42553,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F51" t="str">
@@ -42282,8 +42563,12 @@
       <c r="G51">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>319</v>
       </c>
@@ -42299,7 +42584,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F52" t="str">
@@ -42309,8 +42594,12 @@
       <c r="G52">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>310</v>
       </c>
@@ -42326,7 +42615,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F53" t="str">
@@ -42336,8 +42625,12 @@
       <c r="G53">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>317</v>
       </c>
@@ -42353,18 +42646,21 @@
         <v>4</v>
       </c>
       <c r="E54" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="2"/>
-        <v>EE</v>
+      <c r="F54" t="s">
+        <v>158</v>
       </c>
       <c r="G54">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>288</v>
       </c>
@@ -42380,18 +42676,21 @@
         <v>2</v>
       </c>
       <c r="E55" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F55" t="str">
-        <f>LEFT(C55,2)</f>
-        <v>EE</v>
+      <c r="F55" t="s">
+        <v>158</v>
       </c>
       <c r="G55">
         <v>200</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" t="str">
+        <f>LEFT(F55,2)</f>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>297</v>
       </c>
@@ -42407,18 +42706,21 @@
         <v>3</v>
       </c>
       <c r="E56" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="2"/>
-        <v>EE</v>
+      <c r="F56" t="s">
+        <v>158</v>
       </c>
       <c r="G56">
         <v>200</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>300</v>
       </c>
@@ -42434,18 +42736,21 @@
         <v>2</v>
       </c>
       <c r="E57" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="2"/>
-        <v>EE</v>
+      <c r="F57" t="s">
+        <v>158</v>
       </c>
       <c r="G57">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>561</v>
       </c>
@@ -42461,18 +42766,21 @@
         <v>4</v>
       </c>
       <c r="E58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="2"/>
-        <v>EE</v>
+      <c r="F58" t="s">
+        <v>158</v>
       </c>
       <c r="G58">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>307</v>
       </c>
@@ -42488,18 +42796,21 @@
         <v>3</v>
       </c>
       <c r="E59" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="2"/>
-        <v>IS</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>158</v>
       </c>
       <c r="G59">
         <v>550</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>290</v>
       </c>
@@ -42515,18 +42826,21 @@
         <v>2</v>
       </c>
       <c r="E60" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F60" t="str">
-        <f t="shared" si="2"/>
-        <v>EE</v>
+      <c r="F60" t="s">
+        <v>158</v>
       </c>
       <c r="G60">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -42542,18 +42856,21 @@
         <v>2</v>
       </c>
       <c r="E61" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="2"/>
-        <v>EE</v>
+      <c r="F61" t="s">
+        <v>158</v>
       </c>
       <c r="G61">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="I61" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>304</v>
       </c>
@@ -42569,18 +42886,21 @@
         <v>2</v>
       </c>
       <c r="E62" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F62" t="str">
-        <f t="shared" si="2"/>
-        <v>EE</v>
+      <c r="F62" t="s">
+        <v>158</v>
       </c>
       <c r="G62">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>431</v>
       </c>
@@ -42596,7 +42916,7 @@
         <v>3</v>
       </c>
       <c r="E63" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F63" t="str">
@@ -42606,8 +42926,12 @@
       <c r="G63">
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -42623,7 +42947,7 @@
         <v>3</v>
       </c>
       <c r="E64" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F64" t="str">
@@ -42633,8 +42957,12 @@
       <c r="G64">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>449</v>
       </c>
@@ -42650,7 +42978,7 @@
         <v>3</v>
       </c>
       <c r="E65" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F65" t="str">
@@ -42660,8 +42988,12 @@
       <c r="G65">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>454</v>
       </c>
@@ -42677,7 +43009,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F66" t="str">
@@ -42687,8 +43019,12 @@
       <c r="G66">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66" t="str">
+        <f t="shared" si="3"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>446</v>
       </c>
@@ -42696,26 +43032,30 @@
         <v>5</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C100" si="4">IF(MID(A67,3,1)=" ",LEFT(A67,2)&amp;MID(A67,4,LEN(A67)-3),A67)</f>
+        <f t="shared" ref="C67:C100" si="5">IF(MID(A67,3,1)=" ",LEFT(A67,2)&amp;MID(A67,4,LEN(A67)-3),A67)</f>
         <v>ME5305</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D77" si="5">VALUE(MID(C67,4,1))</f>
+        <f t="shared" ref="D67:D77" si="6">VALUE(MID(C67,4,1))</f>
         <v>3</v>
       </c>
       <c r="E67" t="b">
-        <f t="shared" ref="E67:E79" si="6">IF(F67="IS",TRUE,FALSE)</f>
+        <f t="shared" ref="E67:E79" si="7">IF(F67="IS",TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F75" si="7">LEFT(C67,2)</f>
+        <f t="shared" ref="F67:F75" si="8">LEFT(C67,2)</f>
         <v>ME</v>
       </c>
       <c r="G67">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I75" si="9">LEFT(F67,2)</f>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>320</v>
       </c>
@@ -42723,26 +43063,30 @@
         <v>5</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME5210</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E68" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ME</v>
       </c>
       <c r="G68">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68" t="str">
+        <f t="shared" si="9"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>432</v>
       </c>
@@ -42750,26 +43094,30 @@
         <v>5</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME5212</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E69" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ME</v>
       </c>
       <c r="G69">
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="I69" t="str">
+        <f t="shared" si="9"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>456</v>
       </c>
@@ -42777,26 +43125,30 @@
         <v>5</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME5213</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E70" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ME</v>
       </c>
       <c r="G70">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="I70" t="str">
+        <f t="shared" si="9"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>440</v>
       </c>
@@ -42804,26 +43156,30 @@
         <v>5</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IS5101</v>
       </c>
       <c r="D71">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E71" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="E71" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="F71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>IS</v>
       </c>
       <c r="G71">
         <v>550</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="I71" t="str">
+        <f t="shared" si="9"/>
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>452</v>
       </c>
@@ -42831,26 +43187,30 @@
         <v>5</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IS5302</v>
       </c>
       <c r="D72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E72" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>IS</v>
       </c>
       <c r="G72">
         <v>550</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="I72" t="str">
+        <f t="shared" si="9"/>
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>441</v>
       </c>
@@ -42858,26 +43218,30 @@
         <v>5</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IS5303</v>
       </c>
       <c r="D73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E73" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>IS</v>
       </c>
       <c r="G73">
         <v>550</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73" t="str">
+        <f t="shared" si="9"/>
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>447</v>
       </c>
@@ -42885,26 +43249,30 @@
         <v>5</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IS5306</v>
       </c>
       <c r="D74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E74" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>IS</v>
       </c>
       <c r="G74">
         <v>550</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="I74" t="str">
+        <f t="shared" si="9"/>
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="24" t="s">
         <v>562</v>
       </c>
@@ -42912,26 +43280,30 @@
         <v>7</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CE8301</v>
       </c>
       <c r="D75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E75" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>CE</v>
       </c>
       <c r="G75">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="I75" t="str">
+        <f t="shared" si="9"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="24" t="s">
         <v>563</v>
       </c>
@@ -42939,15 +43311,15 @@
         <v>7</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CE7252</v>
       </c>
       <c r="D76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E76" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F76" t="str">
@@ -42957,8 +43329,12 @@
       <c r="G76">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="I76" t="str">
+        <f>LEFT(F76,2)</f>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="34" t="s">
         <v>564</v>
       </c>
@@ -42966,26 +43342,30 @@
         <v>7</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CE7401</v>
       </c>
       <c r="D77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E77" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" ref="F77:F97" si="8">LEFT(C77,2)</f>
+        <f t="shared" ref="F77:F97" si="10">LEFT(C77,2)</f>
         <v>CE</v>
       </c>
       <c r="G77">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="I77" t="str">
+        <f t="shared" ref="I77:I97" si="11">LEFT(F77,2)</f>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>565</v>
       </c>
@@ -42993,25 +43373,29 @@
         <v>7</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CE7606</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>CE</v>
       </c>
       <c r="G78">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="I78" t="str">
+        <f t="shared" si="11"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>566</v>
       </c>
@@ -43019,25 +43403,29 @@
         <v>7</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CE7205</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>CE</v>
       </c>
       <c r="G79">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="I79" t="str">
+        <f t="shared" si="11"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="24" t="s">
         <v>574</v>
       </c>
@@ -43045,7 +43433,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE7208</v>
       </c>
       <c r="D80">
@@ -43056,14 +43444,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G80">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="I80" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="35" t="s">
         <v>573</v>
       </c>
@@ -43071,25 +43463,29 @@
         <v>7</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE7802</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" t="b">
-        <f t="shared" ref="E81:E95" si="9">IF(F81="IS",TRUE,FALSE)</f>
+        <f t="shared" ref="E81:E95" si="12">IF(F81="IS",TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G81">
         <v>75</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="I81" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="24" t="s">
         <v>567</v>
       </c>
@@ -43097,25 +43493,29 @@
         <v>7</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE8203</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G82">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="I82" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>568</v>
       </c>
@@ -43123,25 +43523,29 @@
         <v>7</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE8204</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G83">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="I83" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="24" t="s">
         <v>569</v>
       </c>
@@ -43149,25 +43553,29 @@
         <v>7</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE8206</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G84">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="I84" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="24" t="s">
         <v>570</v>
       </c>
@@ -43175,25 +43583,29 @@
         <v>7</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE8208</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G85">
         <v>75</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="I85" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="24" t="s">
         <v>571</v>
       </c>
@@ -43201,25 +43613,29 @@
         <v>7</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE8210</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G86">
         <v>75</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="I86" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="34" t="s">
         <v>572</v>
       </c>
@@ -43227,25 +43643,29 @@
         <v>7</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE8211</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G87">
         <v>75</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="24" t="s">
         <v>581</v>
       </c>
@@ -43253,25 +43673,29 @@
         <v>7</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EE8217</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EE</v>
       </c>
       <c r="G88">
         <v>75</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="I88" t="str">
+        <f t="shared" si="11"/>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="24" t="s">
         <v>582</v>
       </c>
@@ -43279,25 +43703,29 @@
         <v>7</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EC7802</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EC</v>
       </c>
       <c r="G89">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="I89" t="str">
+        <f t="shared" si="11"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="34" t="s">
         <v>583</v>
       </c>
@@ -43305,7 +43733,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EC8204</v>
       </c>
       <c r="D90">
@@ -43313,18 +43741,22 @@
         <v>2</v>
       </c>
       <c r="E90" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EC</v>
       </c>
       <c r="G90">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="I90" t="str">
+        <f t="shared" si="11"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="24" t="s">
         <v>584</v>
       </c>
@@ -43332,26 +43764,30 @@
         <v>7</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EC8205</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91:D99" si="10">VALUE(MID(C91,4,1))</f>
+        <f t="shared" ref="D91:D99" si="13">VALUE(MID(C91,4,1))</f>
         <v>2</v>
       </c>
       <c r="E91" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>EC</v>
       </c>
       <c r="G91">
         <v>200</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="I91" t="str">
+        <f t="shared" si="11"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="24" t="s">
         <v>585</v>
       </c>
@@ -43359,26 +43795,30 @@
         <v>7</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EC8206</v>
       </c>
       <c r="D92">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E92" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F92" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E92" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="G92">
         <v>200</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="I92" t="str">
+        <f t="shared" si="11"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="24" t="s">
         <v>586</v>
       </c>
@@ -43386,26 +43826,30 @@
         <v>7</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EC8207</v>
       </c>
       <c r="D93">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E93" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F93" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E93" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="G93">
         <v>200</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="I93" t="str">
+        <f t="shared" si="11"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="34" t="s">
         <v>587</v>
       </c>
@@ -43413,26 +43857,30 @@
         <v>7</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EC8208</v>
       </c>
       <c r="D94">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E94" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F94" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E94" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" si="8"/>
         <v>EC</v>
       </c>
       <c r="G94">
         <v>200</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94" t="str">
+        <f t="shared" si="11"/>
+        <v>EC</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="24" t="s">
         <v>575</v>
       </c>
@@ -43440,26 +43888,30 @@
         <v>7</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME8301</v>
       </c>
       <c r="D95">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E95" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F95" t="str">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E95" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="8"/>
         <v>ME</v>
       </c>
       <c r="G95">
         <v>75</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="I95" t="str">
+        <f t="shared" si="11"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>576</v>
       </c>
@@ -43467,11 +43919,11 @@
         <v>7</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME8202</v>
       </c>
       <c r="D96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E96" t="b">
@@ -43479,14 +43931,18 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>ME</v>
       </c>
       <c r="G96">
         <v>75</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="I96" t="str">
+        <f t="shared" si="11"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>577</v>
       </c>
@@ -43494,26 +43950,30 @@
         <v>7</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME8211</v>
       </c>
       <c r="D97">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E97" t="b">
+        <f t="shared" ref="E97:E101" si="14">IF(F97="IS",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E97" t="b">
-        <f t="shared" ref="E97:E101" si="11">IF(F97="IS",TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F97" t="str">
-        <f t="shared" si="8"/>
         <v>ME</v>
       </c>
       <c r="G97">
         <v>75</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="I97" t="str">
+        <f t="shared" si="11"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>578</v>
       </c>
@@ -43521,15 +43981,15 @@
         <v>7</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME8212</v>
       </c>
       <c r="D98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="E98" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F98" t="str">
@@ -43539,8 +43999,12 @@
       <c r="G98">
         <v>75</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="I98" t="str">
+        <f>LEFT(F98,2)</f>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="24" t="s">
         <v>579</v>
       </c>
@@ -43548,26 +44012,30 @@
         <v>7</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME7401</v>
       </c>
       <c r="D99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="E99" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" ref="F99:F101" si="12">LEFT(C99,2)</f>
+        <f t="shared" ref="F99:F101" si="15">LEFT(C99,2)</f>
         <v>ME</v>
       </c>
       <c r="G99">
         <v>75</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="I99" t="str">
+        <f t="shared" ref="I99:I101" si="16">LEFT(F99,2)</f>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>580</v>
       </c>
@@ -43575,25 +44043,29 @@
         <v>7</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ME7604</v>
       </c>
       <c r="D100">
         <v>3</v>
       </c>
       <c r="E100" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>ME</v>
       </c>
       <c r="G100">
         <v>75</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="I100" t="str">
+        <f t="shared" si="16"/>
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="24" t="s">
         <v>588</v>
       </c>
@@ -43608,56 +44080,57 @@
         <v>2</v>
       </c>
       <c r="E101" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>IS</v>
       </c>
       <c r="G101">
         <v>550</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="I101" t="str">
+        <f t="shared" si="16"/>
+        <v>IS</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="D102">
         <f>SUM(D2:D101)</f>
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:9">
       <c r="D103">
         <f>SUM(D75:D101)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="12:12">
-      <c r="L140">
-        <v>240927155730</v>
-      </c>
-    </row>
-    <row r="241" spans="12:12">
-      <c r="L241">
-        <v>240111133606</v>
-      </c>
-    </row>
-    <row r="298" spans="12:12">
-      <c r="L298">
-        <v>221213160439</v>
-      </c>
-    </row>
-    <row r="361" spans="12:12">
-      <c r="L361">
-        <v>221212164836</v>
-      </c>
-    </row>
-    <row r="362" spans="12:12">
-      <c r="L362" t="s">
-        <v>275</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F101">
+    <cfRule type="uniqueValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I101">
+    <cfRule type="uniqueValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="uniqueValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="uniqueValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I23">
+    <cfRule type="uniqueValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="uniqueValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
